--- a/PascalTri.xlsx
+++ b/PascalTri.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>X</t>
   </si>
@@ -58,6 +58,30 @@
   </si>
   <si>
     <t xml:space="preserve">Метод Треугольника Паскаля </t>
+  </si>
+  <si>
+    <t>a0=1</t>
+  </si>
+  <si>
+    <t>a1=1</t>
+  </si>
+  <si>
+    <t>a3=0</t>
+  </si>
+  <si>
+    <t>a2=0</t>
+  </si>
+  <si>
+    <t>a23=0</t>
+  </si>
+  <si>
+    <t>a13=1</t>
+  </si>
+  <si>
+    <t>a12=1</t>
+  </si>
+  <si>
+    <t>a123=1</t>
   </si>
 </sst>
 </file>
@@ -378,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,7 +413,7 @@
     <col min="5" max="5" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,7 +430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -422,8 +446,11 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -439,8 +466,11 @@
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -456,8 +486,11 @@
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -473,8 +506,11 @@
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -490,8 +526,11 @@
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -507,8 +546,11 @@
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -524,8 +566,11 @@
       <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -541,8 +586,11 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
